--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H2">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.71197368206089</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N2">
-        <v>4.71197368206089</v>
+        <v>1.349036</v>
       </c>
       <c r="O2">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P2">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q2">
-        <v>25.33583153217476</v>
+        <v>4.438146619925777</v>
       </c>
       <c r="R2">
-        <v>25.33583153217476</v>
+        <v>39.943319579332</v>
       </c>
       <c r="S2">
-        <v>0.0003227827394100054</v>
+        <v>4.82699602236252E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003227827394100054</v>
+        <v>4.82699602236252E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H3">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J3">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.19280066200127</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N3">
-        <v>5.19280066200127</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O3">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P3">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q3">
-        <v>27.92119218609201</v>
+        <v>88.26634369254724</v>
       </c>
       <c r="R3">
-        <v>27.92119218609201</v>
+        <v>794.3970932329252</v>
       </c>
       <c r="S3">
-        <v>0.0003557206673866137</v>
+        <v>0.0009599982298906881</v>
       </c>
       <c r="T3">
-        <v>0.0003557206673866137</v>
+        <v>0.0009599982298906881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H4">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J4">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>120.838999699267</v>
+        <v>5.241885</v>
       </c>
       <c r="N4">
-        <v>120.838999699267</v>
+        <v>15.725655</v>
       </c>
       <c r="O4">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P4">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q4">
-        <v>649.7397365679053</v>
+        <v>51.735285481165</v>
       </c>
       <c r="R4">
-        <v>649.7397365679053</v>
+        <v>465.617569330485</v>
       </c>
       <c r="S4">
-        <v>0.008277793124989316</v>
+        <v>0.0005626808634761806</v>
       </c>
       <c r="T4">
-        <v>0.008277793124989316</v>
+        <v>0.0005626808634761806</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>243.653187613367</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H5">
-        <v>243.653187613367</v>
+        <v>29.608787</v>
       </c>
       <c r="I5">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J5">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.71197368206089</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N5">
-        <v>4.71197368206089</v>
+        <v>394.345375</v>
       </c>
       <c r="O5">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P5">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q5">
-        <v>1148.08740758443</v>
+        <v>1297.34313475668</v>
       </c>
       <c r="R5">
-        <v>1148.08740758443</v>
+        <v>11676.08821281012</v>
       </c>
       <c r="S5">
-        <v>0.01462682596510081</v>
+        <v>0.01411010200292695</v>
       </c>
       <c r="T5">
-        <v>0.01462682596510081</v>
+        <v>0.01411010200292695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H6">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I6">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J6">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.19280066200127</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N6">
-        <v>5.19280066200127</v>
+        <v>1.349036</v>
       </c>
       <c r="O6">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P6">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q6">
-        <v>1265.242433937412</v>
+        <v>109.9087411846956</v>
       </c>
       <c r="R6">
-        <v>1265.242433937412</v>
+        <v>989.1786706622601</v>
       </c>
       <c r="S6">
-        <v>0.01611940063326766</v>
+        <v>0.001195384249225794</v>
       </c>
       <c r="T6">
-        <v>0.01611940063326766</v>
+        <v>0.001195384249225794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>243.653187613367</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H7">
-        <v>243.653187613367</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I7">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J7">
-        <v>0.4058525276218909</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>120.838999699267</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N7">
-        <v>120.838999699267</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O7">
-        <v>0.9242428603844673</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P7">
-        <v>0.9242428603844673</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q7">
-        <v>29442.8074647371</v>
+        <v>2185.87702368107</v>
       </c>
       <c r="R7">
-        <v>29442.8074647371</v>
+        <v>19672.89321312963</v>
       </c>
       <c r="S7">
-        <v>0.3751063010235225</v>
+        <v>0.02377393223403378</v>
       </c>
       <c r="T7">
-        <v>0.3751063010235225</v>
+        <v>0.02377393223403378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.1864861794303</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H8">
-        <v>77.1864861794303</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I8">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J8">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.71197368206089</v>
+        <v>5.241885</v>
       </c>
       <c r="N8">
-        <v>4.71197368206089</v>
+        <v>15.725655</v>
       </c>
       <c r="O8">
-        <v>0.03603975574775222</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P8">
-        <v>0.03603975574775222</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q8">
-        <v>363.7006914882322</v>
+        <v>1281.201498962825</v>
       </c>
       <c r="R8">
-        <v>363.7006914882322</v>
+        <v>11530.81349066542</v>
       </c>
       <c r="S8">
-        <v>0.004633607757250816</v>
+        <v>0.01393454310764046</v>
       </c>
       <c r="T8">
-        <v>0.004633607757250816</v>
+        <v>0.01393454310764046</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.1864861794303</v>
+        <v>244.4161783333334</v>
       </c>
       <c r="H9">
-        <v>77.1864861794303</v>
+        <v>733.2485350000001</v>
       </c>
       <c r="I9">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="J9">
-        <v>0.1285693440788597</v>
+        <v>0.3883343047606652</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.19280066200127</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N9">
-        <v>5.19280066200127</v>
+        <v>394.345375</v>
       </c>
       <c r="O9">
-        <v>0.03971738386778057</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P9">
-        <v>0.03971738386778057</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q9">
-        <v>400.8140365300976</v>
+        <v>32128.12983364174</v>
       </c>
       <c r="R9">
-        <v>400.8140365300976</v>
+        <v>289153.1685027757</v>
       </c>
       <c r="S9">
-        <v>0.005106437992408831</v>
+        <v>0.3494304451697651</v>
       </c>
       <c r="T9">
-        <v>0.005106437992408831</v>
+        <v>0.3494304451697652</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>77.1864861794303</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H10">
-        <v>77.1864861794303</v>
+        <v>275.065831</v>
       </c>
       <c r="I10">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J10">
-        <v>0.1285693440788597</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>120.838999699267</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N10">
-        <v>120.838999699267</v>
+        <v>1.349036</v>
       </c>
       <c r="O10">
-        <v>0.9242428603844673</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P10">
-        <v>0.9242428603844673</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q10">
-        <v>9327.137780223655</v>
+        <v>41.23041204321288</v>
       </c>
       <c r="R10">
-        <v>9327.137780223655</v>
+        <v>371.073708388916</v>
       </c>
       <c r="S10">
-        <v>0.1188292983292001</v>
+        <v>0.0004484282561541075</v>
       </c>
       <c r="T10">
-        <v>0.1188292983292001</v>
+        <v>0.0004484282561541078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H11">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I11">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J11">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.71197368206089</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N11">
-        <v>4.71197368206089</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O11">
-        <v>0.03603975574775222</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P11">
-        <v>0.03603975574775222</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q11">
-        <v>373.5579108942068</v>
+        <v>819.9949284353362</v>
       </c>
       <c r="R11">
-        <v>373.5579108942068</v>
+        <v>7379.954355918027</v>
       </c>
       <c r="S11">
-        <v>0.00475919038432131</v>
+        <v>0.008918390032776793</v>
       </c>
       <c r="T11">
-        <v>0.00475919038432131</v>
+        <v>0.008918390032776797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H12">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I12">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J12">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19280066200127</v>
+        <v>5.241885</v>
       </c>
       <c r="N12">
-        <v>5.19280066200127</v>
+        <v>15.725655</v>
       </c>
       <c r="O12">
-        <v>0.03971738386778057</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P12">
-        <v>0.03971738386778057</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q12">
-        <v>411.6771225553253</v>
+        <v>480.621151177145</v>
       </c>
       <c r="R12">
-        <v>411.6771225553253</v>
+        <v>4325.590360594305</v>
       </c>
       <c r="S12">
-        <v>0.005244835528768223</v>
+        <v>0.005227309018092269</v>
       </c>
       <c r="T12">
-        <v>0.005244835528768223</v>
+        <v>0.005227309018092271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>79.2784374658949</v>
+        <v>91.68861033333333</v>
       </c>
       <c r="H13">
-        <v>79.2784374658949</v>
+        <v>275.065831</v>
       </c>
       <c r="I13">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148412</v>
       </c>
       <c r="J13">
-        <v>0.1320539022969971</v>
+        <v>0.1456770701148413</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>120.838999699267</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N13">
-        <v>120.838999699267</v>
+        <v>394.345375</v>
       </c>
       <c r="O13">
-        <v>0.9242428603844673</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P13">
-        <v>0.9242428603844673</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q13">
-        <v>9579.927081099631</v>
+        <v>12052.3264750424</v>
       </c>
       <c r="R13">
-        <v>9579.927081099631</v>
+        <v>108470.9382753816</v>
       </c>
       <c r="S13">
-        <v>0.1220498763839075</v>
+        <v>0.131082942807818</v>
       </c>
       <c r="T13">
-        <v>0.1220498763839075</v>
+        <v>0.1310829428078181</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H14">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I14">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J14">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>4.71197368206089</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N14">
-        <v>4.71197368206089</v>
+        <v>1.349036</v>
       </c>
       <c r="O14">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P14">
-        <v>0.03603975574775222</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q14">
-        <v>597.7027679629427</v>
+        <v>36.38833301705911</v>
       </c>
       <c r="R14">
-        <v>597.7027679629427</v>
+        <v>327.494997153532</v>
       </c>
       <c r="S14">
-        <v>0.007614833424788763</v>
+        <v>0.0003957650654107605</v>
       </c>
       <c r="T14">
-        <v>0.007614833424788763</v>
+        <v>0.0003957650654107605</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H15">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I15">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J15">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.19280066200127</v>
+        <v>8.943258333333334</v>
       </c>
       <c r="N15">
-        <v>5.19280066200127</v>
+        <v>26.82977500000001</v>
       </c>
       <c r="O15">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="P15">
-        <v>0.03971738386778057</v>
+        <v>0.06122027320940888</v>
       </c>
       <c r="Q15">
-        <v>658.6945383363142</v>
+        <v>723.6951330229641</v>
       </c>
       <c r="R15">
-        <v>658.6945383363142</v>
+        <v>6513.256197206677</v>
       </c>
       <c r="S15">
-        <v>0.008391878800133227</v>
+        <v>0.007871018755489838</v>
       </c>
       <c r="T15">
-        <v>0.008391878800133227</v>
+        <v>0.00787101875548984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.847645656103</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H16">
-        <v>126.847645656103</v>
+        <v>242.762237</v>
       </c>
       <c r="I16">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J16">
-        <v>0.211289817780291</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>120.838999699267</v>
+        <v>5.241885</v>
       </c>
       <c r="N16">
-        <v>120.838999699267</v>
+        <v>15.725655</v>
       </c>
       <c r="O16">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="P16">
-        <v>0.9242428603844673</v>
+        <v>0.03588285386280379</v>
       </c>
       <c r="Q16">
-        <v>15328.14261529056</v>
+        <v>424.177242898915</v>
       </c>
       <c r="R16">
-        <v>15328.14261529056</v>
+        <v>3817.595186090236</v>
       </c>
       <c r="S16">
-        <v>0.1952831055553691</v>
+        <v>0.004613416454195478</v>
       </c>
       <c r="T16">
-        <v>0.1952831055553691</v>
+        <v>0.00461341645419548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.00640903202169</v>
+        <v>80.92074566666668</v>
       </c>
       <c r="H17">
-        <v>68.00640903202169</v>
+        <v>242.762237</v>
       </c>
       <c r="I17">
-        <v>0.1132781116901752</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="J17">
-        <v>0.1132781116901752</v>
+        <v>0.1285688276588767</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.71197368206089</v>
+        <v>131.4484583333333</v>
       </c>
       <c r="N17">
-        <v>4.71197368206089</v>
+        <v>394.345375</v>
       </c>
       <c r="O17">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262142</v>
       </c>
       <c r="P17">
-        <v>0.03603975574775222</v>
+        <v>0.8998186379262143</v>
       </c>
       <c r="Q17">
-        <v>320.4444095703542</v>
+        <v>10636.9072650671</v>
       </c>
       <c r="R17">
-        <v>320.4444095703542</v>
+        <v>95732.16538560389</v>
       </c>
       <c r="S17">
-        <v>0.004082515476880509</v>
+        <v>0.1156886273837806</v>
       </c>
       <c r="T17">
-        <v>0.004082515476880509</v>
+        <v>0.1156886273837806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>68.00640903202169</v>
+        <v>129.147616</v>
       </c>
       <c r="H18">
-        <v>68.00640903202169</v>
+        <v>387.442848</v>
       </c>
       <c r="I18">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="J18">
-        <v>0.1132781116901752</v>
+        <v>0.2051928395773366</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>5.19280066200127</v>
+        <v>0.4496786666666666</v>
       </c>
       <c r="N18">
-        <v>5.19280066200127</v>
+        <v>1.349036</v>
       </c>
       <c r="O18">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="P18">
-        <v>0.03971738386778057</v>
+        <v>0.003078235001572995</v>
       </c>
       <c r="Q18">
-        <v>353.1437258418114</v>
+        <v>58.07492776605866</v>
       </c>
       <c r="R18">
-        <v>353.1437258418114</v>
+        <v>522.6743498945279</v>
       </c>
       <c r="S18">
-        <v>0.004499110245816011</v>
+        <v>0.0006316317808591099</v>
       </c>
       <c r="T18">
-        <v>0.004499110245816011</v>
+        <v>0.00063163178085911</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>129.147616</v>
+      </c>
+      <c r="H19">
+        <v>387.442848</v>
+      </c>
+      <c r="I19">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J19">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.943258333333334</v>
+      </c>
+      <c r="N19">
+        <v>26.82977500000001</v>
+      </c>
+      <c r="O19">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="P19">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="Q19">
+        <v>1155.000493022133</v>
+      </c>
+      <c r="R19">
+        <v>10395.0044371992</v>
+      </c>
+      <c r="S19">
+        <v>0.01256196169953895</v>
+      </c>
+      <c r="T19">
+        <v>0.01256196169953895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>129.147616</v>
+      </c>
+      <c r="H20">
+        <v>387.442848</v>
+      </c>
+      <c r="I20">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J20">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.241885</v>
+      </c>
+      <c r="N20">
+        <v>15.725655</v>
+      </c>
+      <c r="O20">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="P20">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="Q20">
+        <v>676.97695109616</v>
+      </c>
+      <c r="R20">
+        <v>6092.792559865439</v>
+      </c>
+      <c r="S20">
+        <v>0.00736290467624731</v>
+      </c>
+      <c r="T20">
+        <v>0.007362904676247311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>129.147616</v>
+      </c>
+      <c r="H21">
+        <v>387.442848</v>
+      </c>
+      <c r="I21">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J21">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>131.4484583333333</v>
+      </c>
+      <c r="N21">
+        <v>394.345375</v>
+      </c>
+      <c r="O21">
+        <v>0.8998186379262142</v>
+      </c>
+      <c r="P21">
+        <v>0.8998186379262143</v>
+      </c>
+      <c r="Q21">
+        <v>16976.25502062533</v>
+      </c>
+      <c r="R21">
+        <v>152786.295185628</v>
+      </c>
+      <c r="S21">
+        <v>0.1846363414206912</v>
+      </c>
+      <c r="T21">
+        <v>0.1846363414206912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H22">
+        <v>220.060691</v>
+      </c>
+      <c r="I22">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J22">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.4496786666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.349036</v>
+      </c>
+      <c r="O22">
+        <v>0.003078235001572995</v>
+      </c>
+      <c r="P22">
+        <v>0.003078235001572995</v>
+      </c>
+      <c r="Q22">
+        <v>32.98553270487511</v>
+      </c>
+      <c r="R22">
+        <v>296.869794343876</v>
+      </c>
+      <c r="S22">
+        <v>0.0003587556896995975</v>
+      </c>
+      <c r="T22">
+        <v>0.0003587556896995976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H23">
+        <v>220.060691</v>
+      </c>
+      <c r="I23">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J23">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.943258333333334</v>
+      </c>
+      <c r="N23">
+        <v>26.82977500000001</v>
+      </c>
+      <c r="O23">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="P23">
+        <v>0.06122027320940888</v>
+      </c>
+      <c r="Q23">
+        <v>656.0198695416141</v>
+      </c>
+      <c r="R23">
+        <v>5904.178825874526</v>
+      </c>
+      <c r="S23">
+        <v>0.007134972257678832</v>
+      </c>
+      <c r="T23">
+        <v>0.007134972257678834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H24">
+        <v>220.060691</v>
+      </c>
+      <c r="I24">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J24">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.241885</v>
+      </c>
+      <c r="N24">
+        <v>15.725655</v>
+      </c>
+      <c r="O24">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="P24">
+        <v>0.03588285386280379</v>
+      </c>
+      <c r="Q24">
+        <v>384.510945080845</v>
+      </c>
+      <c r="R24">
+        <v>3460.598505727605</v>
+      </c>
+      <c r="S24">
+        <v>0.004181999743152091</v>
+      </c>
+      <c r="T24">
+        <v>0.004181999743152092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>68.00640903202169</v>
-      </c>
-      <c r="H19">
-        <v>68.00640903202169</v>
-      </c>
-      <c r="I19">
-        <v>0.1132781116901752</v>
-      </c>
-      <c r="J19">
-        <v>0.1132781116901752</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>120.838999699267</v>
-      </c>
-      <c r="N19">
-        <v>120.838999699267</v>
-      </c>
-      <c r="O19">
-        <v>0.9242428603844673</v>
-      </c>
-      <c r="P19">
-        <v>0.9242428603844673</v>
-      </c>
-      <c r="Q19">
-        <v>8217.826440568699</v>
-      </c>
-      <c r="R19">
-        <v>8217.826440568699</v>
-      </c>
-      <c r="S19">
-        <v>0.1046964859674787</v>
-      </c>
-      <c r="T19">
-        <v>0.1046964859674787</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H25">
+        <v>220.060691</v>
+      </c>
+      <c r="I25">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J25">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>131.4484583333333</v>
+      </c>
+      <c r="N25">
+        <v>394.345375</v>
+      </c>
+      <c r="O25">
+        <v>0.8998186379262142</v>
+      </c>
+      <c r="P25">
+        <v>0.8998186379262143</v>
+      </c>
+      <c r="Q25">
+        <v>9642.212857239347</v>
+      </c>
+      <c r="R25">
+        <v>86779.91571515413</v>
+      </c>
+      <c r="S25">
+        <v>0.1048701791412323</v>
+      </c>
+      <c r="T25">
+        <v>0.1048701791412323</v>
       </c>
     </row>
   </sheetData>
